--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -96,6 +96,12 @@
     <t xml:space="preserve">Comp HB to AI</t>
   </si>
   <si>
+    <t xml:space="preserve">[meal.rate]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[meal.amount]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[extra.pax]</t>
   </si>
   <si>
@@ -147,11 +153,12 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,12 +221,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -555,107 +556,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,179 +846,178 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>105</v>
-      </c>
-      <c r="G5" s="12" t="e">
-        <f aca="false">F5*E5*A5</f>
-        <v>#VALUE!</v>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>21</v>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1025,7 +1025,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,23 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[meal] ([occupants]</t>
+      <t xml:space="preserve">[meal_name] ([occupants]</t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Amount (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve">One Bedroom Lagoon Pool Villa</t>
+    <t xml:space="preserve">[room.row.details]</t>
   </si>
   <si>
     <t xml:space="preserve">[checkin]</t>
@@ -78,10 +78,10 @@
     <t xml:space="preserve">[nights]</t>
   </si>
   <si>
-    <t xml:space="preserve">[room_rate]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[room_total]</t>
+    <t xml:space="preserve">[room.row.room_rate]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[room.row.room_total]</t>
   </si>
   <si>
     <t xml:space="preserve">[discount.percentage]% Discount</t>
@@ -93,7 +93,10 @@
     <t xml:space="preserve">[=discount]</t>
   </si>
   <si>
-    <t xml:space="preserve">Comp HB to AI</t>
+    <t xml:space="preserve">[meal.pax]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[meal.details]</t>
   </si>
   <si>
     <t xml:space="preserve">[meal.rate]</t>
@@ -114,6 +117,9 @@
     <t xml:space="preserve">[extra.amount]</t>
   </si>
   <si>
+    <t xml:space="preserve">[=extra]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[seaplane.pax]</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t xml:space="preserve">[seaplane.amount]</t>
   </si>
   <si>
+    <t xml:space="preserve">[=seaplane]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[tax.pax]</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">[tax.amount]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[=tax]</t>
   </si>
   <si>
     <t xml:space="preserve">Total Amount for the entire stay (Including all Taxes)</t>
@@ -153,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,28 +189,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -249,7 +246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -564,99 +561,99 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,112 +729,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -845,18 +736,18 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,11 +821,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>3</v>
+      <c r="A5" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
@@ -946,18 +837,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>9</v>
@@ -969,35 +860,41 @@
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -1009,15 +906,18 @@
         <v>11</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1025,7 +925,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -736,15 +736,15 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Amount for the entire stay (Including all Taxes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[all_total]</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -924,8 +921,9 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
-        <v>37</v>
+      <c r="G9" s="26" t="n">
+        <f aca="true">SUM(OFFSET(G3,0,0,COUNTA(G:G)-2,1))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
